--- a/MyStoreProject/src/test/resources/TestData/TestData.xlsx
+++ b/MyStoreProject/src/test/resources/TestData/TestData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView windowWidth="23040" windowHeight="9335" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -14,169 +14,169 @@
     <sheet name="SearchProduct" sheetId="6" r:id="rId5"/>
     <sheet name="AccountCreationData" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="90">
   <si>
+    <t>Smoke</t>
+  </si>
+  <si>
+    <t>Sanity</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My Store Application - </t>
+  </si>
+  <si>
+    <t>Pages Classes</t>
+  </si>
+  <si>
+    <t>TestClasses</t>
+  </si>
+  <si>
     <t>TestCases</t>
   </si>
   <si>
-    <t>LoginPage</t>
-  </si>
-  <si>
-    <t>OrderPage</t>
-  </si>
-  <si>
-    <t>SearchResultPage</t>
-  </si>
-  <si>
-    <t>AddressPage</t>
-  </si>
-  <si>
-    <t>ShippingPage</t>
-  </si>
-  <si>
-    <t>PaymentPage</t>
-  </si>
-  <si>
-    <t>OrderConfirmationPage</t>
+    <t>Grouping</t>
+  </si>
+  <si>
+    <t>Expected Results</t>
   </si>
   <si>
     <t>IndexPage</t>
   </si>
   <si>
     <t>IndexPageTest</t>
-  </si>
-  <si>
-    <t>AccountCreationPage</t>
-  </si>
-  <si>
-    <t>HomePage</t>
-  </si>
-  <si>
-    <t>AddToCartPage</t>
-  </si>
-  <si>
-    <t>Pages Classes</t>
-  </si>
-  <si>
-    <t>TestClasses</t>
-  </si>
-  <si>
-    <t>LoginPageTest</t>
-  </si>
-  <si>
-    <t>HomePageTest</t>
-  </si>
-  <si>
-    <t>AccountCreationTest</t>
-  </si>
-  <si>
-    <t>SearchResultPageTest</t>
-  </si>
-  <si>
-    <t>AddToCartPageTest</t>
-  </si>
-  <si>
-    <t>OrderPageTest</t>
-  </si>
-  <si>
-    <t>EndToEndTest</t>
-  </si>
-  <si>
-    <t>productAvailabilityTest</t>
-  </si>
-  <si>
-    <t>addToCartTest</t>
-  </si>
-  <si>
-    <t>priceTest</t>
-  </si>
-  <si>
-    <t>endToEndTest</t>
   </si>
   <si>
     <t>myStoreLogoTest
 myStoreTitle</t>
   </si>
   <si>
+    <t>Smoke
+Smoke</t>
+  </si>
+  <si>
+    <t>Logo should be present
+Title should match with expected value</t>
+  </si>
+  <si>
+    <t>LoginPage</t>
+  </si>
+  <si>
+    <t>LoginPageTest</t>
+  </si>
+  <si>
+    <t>loginTest</t>
+  </si>
+  <si>
+    <t>Sanity, Smoke</t>
+  </si>
+  <si>
+    <t>User should be able to login</t>
+  </si>
+  <si>
+    <t>HomePage</t>
+  </si>
+  <si>
+    <t>HomePageTest</t>
+  </si>
+  <si>
     <t>wishListTest
 orderHistoryandDetailsTest</t>
   </si>
   <si>
-    <t>loginTest</t>
-  </si>
-  <si>
-    <t>Expected Results</t>
-  </si>
-  <si>
-    <t>Logo should be present
-Title should match with expected value</t>
-  </si>
-  <si>
-    <t>User should be able to login</t>
-  </si>
-  <si>
     <t>WishList should be displayed
 OderHistory should be displayed</t>
   </si>
   <si>
+    <t>AccountCreationPage</t>
+  </si>
+  <si>
+    <t>AccountCreationTest</t>
+  </si>
+  <si>
+    <t>createAccountPageTest</t>
+  </si>
+  <si>
     <t>User should be navigate to account creation page</t>
   </si>
   <si>
+    <t>SearchResultPage</t>
+  </si>
+  <si>
+    <t>SearchResultPageTest</t>
+  </si>
+  <si>
+    <t>productAvailabilityTest</t>
+  </si>
+  <si>
     <t>Search the product and product should be displayed</t>
   </si>
   <si>
+    <t>AddToCartPage</t>
+  </si>
+  <si>
+    <t>AddToCartPageTest</t>
+  </si>
+  <si>
+    <t>addToCartTest</t>
+  </si>
+  <si>
+    <t>Regression, Sanity</t>
+  </si>
+  <si>
     <t>User should be able to add the product in the cart</t>
   </si>
   <si>
+    <t>OrderPage</t>
+  </si>
+  <si>
+    <t>OrderPageTest</t>
+  </si>
+  <si>
+    <t>priceTest</t>
+  </si>
+  <si>
+    <t>AddressPage</t>
+  </si>
+  <si>
     <t>Validate the Price on Order Page</t>
   </si>
   <si>
+    <t>ShippingPage</t>
+  </si>
+  <si>
+    <t>PaymentPage</t>
+  </si>
+  <si>
+    <t>OrderSummary</t>
+  </si>
+  <si>
+    <t>OrderConfirmationPage</t>
+  </si>
+  <si>
+    <t>EndToEndTest</t>
+  </si>
+  <si>
+    <t>endToEndTest</t>
+  </si>
+  <si>
     <t>User should be able to order the product</t>
   </si>
   <si>
-    <t xml:space="preserve">My Store Application - </t>
-  </si>
-  <si>
-    <t>OrderSummary</t>
-  </si>
-  <si>
-    <t>createAccountPageTest</t>
-  </si>
-  <si>
-    <t>Grouping</t>
-  </si>
-  <si>
-    <t>Sanity</t>
-  </si>
-  <si>
-    <t>Regression</t>
-  </si>
-  <si>
-    <t>Smoke</t>
-  </si>
-  <si>
-    <t>Sanity, Smoke</t>
-  </si>
-  <si>
-    <t>Regression, Sanity</t>
-  </si>
-  <si>
-    <t>Smoke
-Smoke</t>
-  </si>
-  <si>
     <t>Username</t>
   </si>
   <si>
     <t>Password</t>
   </si>
   <si>
-    <t>admin@xyz.com</t>
+    <t>jenkinsuser@test.com</t>
   </si>
   <si>
     <t>admin@123</t>
@@ -185,24 +185,24 @@
     <t>Email</t>
   </si>
   <si>
+    <t>ghfsdtyfg@gmail.com</t>
+  </si>
+  <si>
     <t>Product</t>
   </si>
   <si>
+    <t>qty</t>
+  </si>
+  <si>
     <t>Size</t>
   </si>
   <si>
-    <t>qty</t>
-  </si>
-  <si>
     <t>t-shirt</t>
   </si>
   <si>
     <t>M</t>
   </si>
   <si>
-    <t>ghfsdtyfg@gmail.com</t>
-  </si>
-  <si>
     <t>Gender</t>
   </si>
   <si>
@@ -245,9 +245,18 @@
     <t>MobilePhone</t>
   </si>
   <si>
+    <t>newtest1@gmail.com</t>
+  </si>
+  <si>
     <t>Mrs</t>
   </si>
   <si>
+    <t>TestUser</t>
+  </si>
+  <si>
+    <t>UserTest</t>
+  </si>
+  <si>
     <t>hgsdtyf</t>
   </si>
   <si>
@@ -260,6 +269,9 @@
     <t>1985</t>
   </si>
   <si>
+    <t>ABCDEF</t>
+  </si>
+  <si>
     <t>EDFG123</t>
   </si>
   <si>
@@ -276,18 +288,6 @@
   </si>
   <si>
     <t>8489875678</t>
-  </si>
-  <si>
-    <t>TestUser</t>
-  </si>
-  <si>
-    <t>UserTest</t>
-  </si>
-  <si>
-    <t>ABCDEF</t>
-  </si>
-  <si>
-    <t>newtest1@gmail.com</t>
   </si>
   <si>
     <t>newtest2@gmail.com</t>
@@ -300,12 +300,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -313,7 +319,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -321,10 +327,153 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,12 +488,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="3" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -354,42 +689,29 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -397,35 +719,305 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -435,34 +1027,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -745,259 +1370,259 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="5" width="44.42578125" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" customWidth="1"/>
-    <col min="13" max="13" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.1388888888889" customWidth="1"/>
+    <col min="2" max="2" width="23.712962962963" customWidth="1"/>
+    <col min="3" max="4" width="26.287037037037" customWidth="1"/>
+    <col min="5" max="5" width="44.4259259259259" customWidth="1"/>
+    <col min="6" max="6" width="20.5740740740741" customWidth="1"/>
+    <col min="7" max="7" width="22.712962962963" customWidth="1"/>
+    <col min="8" max="8" width="17.1388888888889" customWidth="1"/>
+    <col min="9" max="9" width="18.712962962963" customWidth="1"/>
+    <col min="10" max="10" width="23.4259259259259" customWidth="1"/>
+    <col min="11" max="11" width="15.712962962963" customWidth="1"/>
+    <col min="12" max="12" width="17.5740740740741" customWidth="1"/>
+    <col min="13" max="13" width="20.8518518518519" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" ht="28.8" spans="1:5">
+      <c r="A6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" ht="28.8" spans="1:5">
+      <c r="A8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="30">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="B17" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="12" t="s">
         <v>47</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="30">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1005,364 +1630,379 @@
     <mergeCell ref="A4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.712962962963" customWidth="1"/>
+    <col min="2" max="2" width="12.287037037037" customWidth="1"/>
+    <col min="3" max="3" width="13.5740740740741" customWidth="1"/>
+    <col min="4" max="4" width="17.712962962963" customWidth="1"/>
+    <col min="5" max="5" width="17.287037037037" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId1" display="jenkinsuser@test.com" tooltip="mailto:jenkinsuser@test.com"/>
+    <hyperlink ref="B2" r:id="rId2" display="admin@123"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.5740740740741" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="10" t="s">
-        <v>58</v>
+      <c r="A2" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" display="ghfsdtyfg@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="A1" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>54</v>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="7">
+      <c r="A2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="4">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>57</v>
+      <c r="C2" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="8" t="s">
-        <v>53</v>
+      <c r="A1" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="7" t="s">
-        <v>56</v>
+      <c r="A2" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="7.71296296296296" customWidth="1"/>
+    <col min="3" max="3" width="10.1388888888889" customWidth="1"/>
+    <col min="4" max="4" width="9.71296296296296" customWidth="1"/>
+    <col min="5" max="5" width="12.287037037037" customWidth="1"/>
+    <col min="6" max="6" width="4.28703703703704" customWidth="1"/>
+    <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="8" max="8" width="5" customWidth="1"/>
+    <col min="9" max="9" width="9.28703703703704" customWidth="1"/>
+    <col min="10" max="10" width="8.57407407407407" customWidth="1"/>
+    <col min="11" max="11" width="4.42592592592593" customWidth="1"/>
+    <col min="12" max="12" width="8.71296296296296" customWidth="1"/>
+    <col min="13" max="13" width="8" customWidth="1"/>
+    <col min="14" max="14" width="12.8518518518519" customWidth="1"/>
+    <col min="15" max="15" width="13.287037037037" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="12" t="s">
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="M3" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="N3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="C4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="D4" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="E4" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="F4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="J2" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>83</v>
+      <c r="O4" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId1" display="newtest1@gmail.com"/>
+    <hyperlink ref="A3" r:id="rId2" display="newtest2@gmail.com"/>
+    <hyperlink ref="A4" r:id="rId3" display="newtest3@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>